--- a/Excels_AdityaGupta/VM_ALLOCATION.xlsx
+++ b/Excels_AdityaGupta/VM_ALLOCATION.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a7gupta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JENKINS_STUFF\Excels_AdityaGupta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B7211-E29F-4669-BB11-75557826DB71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3FB994-FD41-475D-8D4E-AE37FC180C10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="TOTAL_GGN_VM's" sheetId="4" r:id="rId2"/>
+    <sheet name="GGN_INDIVIDUAL_VM's_toRecreat" sheetId="1" r:id="rId3"/>
+    <sheet name="New_VMs" sheetId="3" r:id="rId4"/>
+    <sheet name="GGN_TESTFARM_VM's" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="228">
   <si>
     <t>Sami A Khan</t>
   </si>
@@ -247,13 +254,483 @@
   </si>
   <si>
     <t>VM's To be renamed/recreated</t>
+  </si>
+  <si>
+    <t>Test Farm VM's</t>
+  </si>
+  <si>
+    <t>GGNTEST41</t>
+  </si>
+  <si>
+    <t>GGNTEST42</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA1</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA2</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA3</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA4</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA5</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA6</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA7</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA8</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA9</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA10</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA11</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA12</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA13</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA14</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA15</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA16</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA17</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA18</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA19</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA20</t>
+  </si>
+  <si>
+    <t>GGNTEST0RA21</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Normal (DB user required)</t>
+  </si>
+  <si>
+    <t>Cloning</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON083</t>
+  </si>
+  <si>
+    <t>Aditya D. Sharma</t>
+  </si>
+  <si>
+    <t>Local DB</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON084</t>
+  </si>
+  <si>
+    <t>Dhruv Aggarwal</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON085</t>
+  </si>
+  <si>
+    <t>unassigned</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON086</t>
+  </si>
+  <si>
+    <t>Gaurav Sharma</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON087</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON088</t>
+  </si>
+  <si>
+    <t>Suraj Kumar</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON089</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON090</t>
+  </si>
+  <si>
+    <t>Vishwashish Jha</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON091</t>
+  </si>
+  <si>
+    <t>Rajat Goel</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON092</t>
+  </si>
+  <si>
+    <t>Prachi</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON093</t>
+  </si>
+  <si>
+    <t>Divvya Gupta</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON094</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON095</t>
+  </si>
+  <si>
+    <t>Hemant Manwani  (POC DB Cloning)</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON096</t>
+  </si>
+  <si>
+    <t>Hemant Manwani</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON097</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON098</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON099</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON100</t>
+  </si>
+  <si>
+    <t>Manmohan Singh</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON101</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON102</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON103</t>
+  </si>
+  <si>
+    <t>Shubham Saxena</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON104</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Alocated to</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>VM Name</t>
+  </si>
+  <si>
+    <t>Allocated User</t>
+  </si>
+  <si>
+    <t>DB Details</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON044</t>
+  </si>
+  <si>
+    <t>database.host=guvcddboracle06
+db Port=1518
+db Service= oracle18c
+db password= password</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON045</t>
+  </si>
+  <si>
+    <t>Hemant Manwani(Devops)</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON046</t>
+  </si>
+  <si>
+    <t>Karuna</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON047</t>
+  </si>
+  <si>
+    <t>Deenabandhu Panda</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON048</t>
+  </si>
+  <si>
+    <t>Bhupender Singh</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON049</t>
+  </si>
+  <si>
+    <t>Aditya Gupta POC GGN</t>
+  </si>
+  <si>
+    <t>GGNTEST36</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON050</t>
+  </si>
+  <si>
+    <t>GGNTEST37</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON051</t>
+  </si>
+  <si>
+    <t>Priyanka Goyal</t>
+  </si>
+  <si>
+    <t>GGNTEST38</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON052</t>
+  </si>
+  <si>
+    <t>GGNTEST39</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON053</t>
+  </si>
+  <si>
+    <t>GGNTEST40</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON054</t>
+  </si>
+  <si>
+    <t>Sanjay Gupta</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON055</t>
+  </si>
+  <si>
+    <t>Sumant K. Yadav</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON056</t>
+  </si>
+  <si>
+    <t>Vaibhav Jain</t>
+  </si>
+  <si>
+    <t>GGNTEST43</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON057</t>
+  </si>
+  <si>
+    <t>Aditya Kaushik</t>
+  </si>
+  <si>
+    <t>GGNTEST44</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON058</t>
+  </si>
+  <si>
+    <t>Aditya Gupta(VM's POC)</t>
+  </si>
+  <si>
+    <t>GGNTEST45</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON059</t>
+  </si>
+  <si>
+    <t>Prashant Shandilya</t>
+  </si>
+  <si>
+    <t>GGNTEST46</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON060</t>
+  </si>
+  <si>
+    <t>GGNTEST47</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON061</t>
+  </si>
+  <si>
+    <t>database.host=guscddboracle03
+db Port=1512
+db Service= oracle12c
+db password= password</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON062</t>
+  </si>
+  <si>
+    <t>Aman Madaan</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON063</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON064</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON065</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON066</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON067</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON068</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON069</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON070</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON071</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON072</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON073</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON074</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON075</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON076</t>
+  </si>
+  <si>
+    <t>Divvya</t>
+  </si>
+  <si>
+    <t>Ankit Kumar</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>Manisha</t>
+  </si>
+  <si>
+    <t>Apurva</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON042</t>
+  </si>
+  <si>
+    <t>Amit Kedia</t>
+  </si>
+  <si>
+    <t>Urvi</t>
+  </si>
+  <si>
+    <t>DB details : ORACLE18C@localhost:1521
+Default db user : SONATADB
+Password : password</t>
+  </si>
+  <si>
+    <t>GUVWPVDSON043</t>
+  </si>
+  <si>
+    <t>Nitesh Thakran</t>
+  </si>
+  <si>
+    <t>Dhiraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neha </t>
+  </si>
+  <si>
+    <t>Vineet</t>
+  </si>
+  <si>
+    <t>Priyanka  Sengar</t>
+  </si>
+  <si>
+    <t>Chaitanya</t>
+  </si>
+  <si>
+    <t>Vipul T</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Nishank</t>
+  </si>
+  <si>
+    <t>Nishu</t>
+  </si>
+  <si>
+    <t>TOTAL COUNT = 92</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Allocated User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +738,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +758,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -310,11 +799,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,9 +822,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,6 +885,619 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aditya Gupta" refreshedDate="44042.077806712965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="91" xr:uid="{3951E341-1157-4DA9-ADFE-E59EBF508C1E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C2:C93" sheet="TOTAL_GGN_VM's"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Allocated User" numFmtId="0">
+      <sharedItems containsBlank="1" count="56">
+        <s v="Vishwashish Jha"/>
+        <s v="Hemant Manwani(Devops)"/>
+        <s v="Karuna"/>
+        <s v="Deenabandhu Panda"/>
+        <s v="Bhupender Singh"/>
+        <s v="Aditya Gupta POC GGN"/>
+        <s v="Praveen K. Jha"/>
+        <s v="Priyanka Goyal"/>
+        <s v="Ravi Roshan"/>
+        <s v="Prachi"/>
+        <s v="Sanjay Gupta"/>
+        <s v="Sumant K. Yadav"/>
+        <s v="Vaibhav Jain"/>
+        <s v="Aditya Kaushik"/>
+        <s v="Aditya Gupta(VM's POC)"/>
+        <s v="Prashant Shandilya"/>
+        <s v="Aman Madaan"/>
+        <s v="Dhruv Aggarwal"/>
+        <s v="Rajat Goel"/>
+        <s v="Divvya"/>
+        <s v="Ankit Kumar"/>
+        <s v="Sami A Khan"/>
+        <s v="Ashish"/>
+        <s v="Amarjeet"/>
+        <s v="Shubham"/>
+        <s v="Anup"/>
+        <s v="Manish Joshi"/>
+        <s v="Gaurav Saini"/>
+        <s v="Ankur"/>
+        <s v="unassigned"/>
+        <s v="Aditya D. Sharma"/>
+        <s v="Gaurav Sharma"/>
+        <s v="Suraj Kumar"/>
+        <s v="Divvya Gupta"/>
+        <s v="Hemant Manwani  (POC DB Cloning)"/>
+        <s v="Hemant Manwani"/>
+        <s v="Manmohan Singh"/>
+        <s v="Shubham Saxena"/>
+        <s v="Manisha"/>
+        <s v="Apurva"/>
+        <s v="Amit Kedia"/>
+        <s v="Nitesh Thakran"/>
+        <m/>
+        <s v="Neha "/>
+        <s v="Karishma"/>
+        <s v="Sweety Sharma"/>
+        <s v="Amit k Khasa"/>
+        <s v="mareddy"/>
+        <s v="Vineet"/>
+        <s v="Priyanka  Sengar"/>
+        <s v="Joy Sharma"/>
+        <s v="Pradeep K Sharma"/>
+        <s v="Vipul T"/>
+        <s v="Neha"/>
+        <s v="Nishank"/>
+        <s v="Nishu"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="91">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A396871C-AD52-4932-8AD0-465EBE0C4C4A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="57">
+        <item x="30"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="23"/>
+        <item x="46"/>
+        <item x="40"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="39"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="33"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="44"/>
+        <item x="2"/>
+        <item x="26"/>
+        <item x="38"/>
+        <item x="36"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="43"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="41"/>
+        <item x="9"/>
+        <item x="51"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="49"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="24"/>
+        <item x="37"/>
+        <item x="11"/>
+        <item x="32"/>
+        <item x="45"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="48"/>
+        <item x="52"/>
+        <item x="0"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="57">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Allocated User" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,11 +1762,2319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97EFA6-00E5-4F01-8A26-E226B1BBF54F}">
+  <dimension ref="A3:B60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="22">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0295A-2E9B-401C-B1A8-024DA46EF974}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>42</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>43</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>44</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>45</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>49</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>51</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>52</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>53</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>54</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>55</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>56</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>57</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>58</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>59</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>60</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>61</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>62</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>63</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>64</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>65</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>66</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>68</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>69</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>70</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>71</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>72</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>73</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>82</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>83</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <v>84</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>85</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>86</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>87</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>88</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>89</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <v>90</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>91</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>92</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,22 +4116,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -675,22 +4139,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,22 +4162,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -721,22 +4185,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3">
         <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,22 +4208,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3">
         <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -767,22 +4231,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3">
         <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -790,22 +4254,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3">
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -813,22 +4277,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3">
         <v>8</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -836,22 +4300,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3">
         <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -859,22 +4323,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -882,22 +4346,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H15" s="3">
         <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,22 +4369,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3">
         <v>12</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -928,45 +4392,43 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H17" s="3">
         <v>13</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3">
         <v>14</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -974,22 +4436,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H19" s="3">
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -997,22 +4459,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H20" s="3">
         <v>16</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1020,68 +4482,64 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H21" s="3">
         <v>17</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H22" s="3">
         <v>18</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H23" s="3">
         <v>19</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1089,22 +4547,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H24" s="3">
         <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1112,22 +4570,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H25" s="3">
         <v>21</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1135,43 +4593,45 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H26" s="3">
         <v>22</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3">
         <v>23</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1179,22 +4639,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
         <v>24</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1202,22 +4662,22 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>25</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1225,64 +4685,68 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3">
         <v>26</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="H31" s="3">
         <v>27</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C32" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H32" s="3">
         <v>28</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1290,22 +4754,22 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3">
         <v>29</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1313,22 +4777,22 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H34" s="3">
         <v>30</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1336,22 +4800,22 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H35" s="3">
         <v>31</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1359,22 +4823,22 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="H36" s="3">
         <v>32</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1382,26 +4846,723 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H37" s="3">
         <v>33</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E37">
+    <sortCondition ref="D5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD84AE2-E6B1-4F3B-9369-3824ACC0E378}">
+  <dimension ref="B3:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9DE279-8A35-4FB0-9FC0-C146DB9D447E}">
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>